--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="182">
   <si>
     <t>标识号</t>
   </si>
@@ -631,6 +631,10 @@
   </si>
   <si>
     <t>延期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -932,17 +936,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -956,17 +960,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1135,14 +1139,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>220532</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>26894</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1151,8 +1155,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="10488706" y="600635"/>
-          <a:ext cx="2237591" cy="26894"/>
+          <a:off x="10425953" y="484094"/>
+          <a:ext cx="2241176" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2045,8 +2049,8 @@
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2064,10 +2068,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="39" t="s">
@@ -2091,66 +2095,66 @@
       <c r="I1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="37">
+      <c r="J1" s="45">
         <v>43990</v>
       </c>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="35">
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="43">
         <v>43997</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="35">
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="43">
         <v>44004</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35">
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43">
         <v>44011</v>
       </c>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="35">
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="43">
         <v>44018</v>
       </c>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="35">
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="43">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="35">
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="43">
         <v>44032</v>
       </c>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="35">
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="44"/>
+      <c r="AQ1" s="44"/>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="43">
         <v>44039</v>
       </c>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="36"/>
+      <c r="AT1" s="44"/>
+      <c r="AU1" s="44"/>
+      <c r="AV1" s="44"/>
+      <c r="AW1" s="44"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -4215,7 +4219,7 @@
         <v>169</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
       <c r="D34" s="9">
         <v>44032</v>
@@ -4400,23 +4404,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\CalibrateTool\项目文档\管理计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="任务_表" sheetId="1" r:id="rId1"/>
@@ -493,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彭明东、罗志勇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日志纪录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>罗志勇、彭明东</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -635,14 +622,22 @@
   </si>
   <si>
     <t>10 个工作日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待确认</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -698,8 +693,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +722,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -837,7 +846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -936,6 +945,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1802,7 +1814,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1834,10 +1846,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,7 +1880,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2045,123 +2055,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="10" max="49" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="28" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="49" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="39" t="s">
+    <row r="1" spans="1:50">
+      <c r="A1" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="46">
         <v>43990</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="43">
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="44">
         <v>43997</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="43">
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="44">
         <v>44004</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43">
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44">
         <v>44011</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="43">
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="44">
         <v>44018</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="43">
+      <c r="AE1" s="45"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="44">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="43">
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="45"/>
+      <c r="AM1" s="45"/>
+      <c r="AN1" s="44">
         <v>44032</v>
       </c>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="43">
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="45"/>
+      <c r="AS1" s="44">
         <v>44039</v>
       </c>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="34" t="s">
         <v>119</v>
       </c>
@@ -2283,7 +2293,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="22" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="22" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>135</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D3" s="19">
         <v>43990</v>
@@ -2344,12 +2354,12 @@
       <c r="AV3" s="32"/>
       <c r="AW3" s="32"/>
     </row>
-    <row r="4" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -2412,7 +2422,7 @@
       <c r="AW4" s="32"/>
       <c r="AX4" s="22"/>
     </row>
-    <row r="5" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A5" s="8">
         <v>1.2</v>
       </c>
@@ -2479,7 +2489,7 @@
       <c r="AV5" s="33"/>
       <c r="AW5" s="33"/>
     </row>
-    <row r="6" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="8">
         <v>1.3</v>
       </c>
@@ -2499,11 +2509,11 @@
       <c r="G6" s="8">
         <v>1.2</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>147</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
@@ -2546,7 +2556,7 @@
       <c r="AV6" s="33"/>
       <c r="AW6" s="33"/>
     </row>
-    <row r="7" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="8">
         <v>1.4</v>
       </c>
@@ -2613,7 +2623,7 @@
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
     </row>
-    <row r="8" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="8">
         <v>1.5</v>
       </c>
@@ -2633,11 +2643,11 @@
       <c r="G8" s="8">
         <v>1.4</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>146</v>
+      <c r="H8" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2680,7 +2690,7 @@
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
     </row>
-    <row r="9" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -2731,12 +2741,12 @@
       <c r="AV9" s="33"/>
       <c r="AW9" s="33"/>
     </row>
-    <row r="10" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2792,7 +2802,7 @@
       <c r="AV10" s="33"/>
       <c r="AW10" s="33"/>
     </row>
-    <row r="11" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2861,12 +2871,12 @@
       <c r="AV11" s="33"/>
       <c r="AW11" s="33"/>
     </row>
-    <row r="12" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
@@ -2885,7 +2895,7 @@
         <v>131</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -2928,7 +2938,7 @@
       <c r="AV12" s="33"/>
       <c r="AW12" s="33"/>
     </row>
-    <row r="13" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2979,7 +2989,7 @@
       <c r="AV13" s="33"/>
       <c r="AW13" s="33"/>
     </row>
-    <row r="14" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3040,15 +3050,15 @@
       <c r="AV14" s="33"/>
       <c r="AW14" s="33"/>
     </row>
-    <row r="15" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="12">
         <v>3.1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D15" s="15">
         <v>44004</v>
@@ -3103,12 +3113,12 @@
       <c r="AV15" s="33"/>
       <c r="AW15" s="33"/>
     </row>
-    <row r="16" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="12">
         <v>3.2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>140</v>
@@ -3168,12 +3178,12 @@
       <c r="AV16" s="33"/>
       <c r="AW16" s="33"/>
     </row>
-    <row r="17" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="8">
         <v>3.3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>140</v>
@@ -3233,7 +3243,7 @@
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
     </row>
-    <row r="18" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -3284,12 +3294,12 @@
       <c r="AV18" s="33"/>
       <c r="AW18" s="33"/>
     </row>
-    <row r="19" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>7</v>
@@ -3345,12 +3355,12 @@
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
     </row>
-    <row r="20" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="12">
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>36</v>
@@ -3366,7 +3376,7 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>126</v>
@@ -3412,7 +3422,7 @@
       <c r="AV20" s="33"/>
       <c r="AW20" s="33"/>
     </row>
-    <row r="21" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="12">
         <v>4.2</v>
       </c>
@@ -3433,10 +3443,10 @@
         <v>1.5</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
@@ -3479,7 +3489,7 @@
       <c r="AV21" s="33"/>
       <c r="AW21" s="33"/>
     </row>
-    <row r="22" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="12">
         <v>4.3</v>
       </c>
@@ -3487,7 +3497,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D22" s="15">
         <v>44004</v>
@@ -3544,12 +3554,12 @@
       <c r="AV22" s="33"/>
       <c r="AW22" s="33"/>
     </row>
-    <row r="23" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="12">
         <v>4.5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>140</v>
@@ -3609,12 +3619,12 @@
       <c r="AV23" s="33"/>
       <c r="AW23" s="33"/>
     </row>
-    <row r="24" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>140</v>
@@ -3631,7 +3641,7 @@
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -3674,7 +3684,7 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
     </row>
-    <row r="25" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11"/>
@@ -3725,12 +3735,12 @@
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
     </row>
-    <row r="26" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -3788,12 +3798,12 @@
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
     </row>
-    <row r="27" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>140</v>
@@ -3806,7 +3816,7 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="6" t="s">
@@ -3853,12 +3863,12 @@
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
     </row>
-    <row r="28" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="8">
         <v>5.2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>140</v>
@@ -3918,7 +3928,7 @@
       <c r="AV28" s="33"/>
       <c r="AW28" s="33"/>
     </row>
-    <row r="29" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -3969,7 +3979,7 @@
       <c r="AV29" s="33"/>
       <c r="AW29" s="33"/>
     </row>
-    <row r="30" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -3977,7 +3987,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D30" s="9">
         <v>44018</v>
@@ -4030,7 +4040,7 @@
       <c r="AV30" s="33"/>
       <c r="AW30" s="33"/>
     </row>
-    <row r="31" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="12">
         <v>6.1</v>
       </c>
@@ -4095,7 +4105,7 @@
       <c r="AV31" s="33"/>
       <c r="AW31" s="33"/>
     </row>
-    <row r="32" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="8">
         <v>6.6</v>
       </c>
@@ -4117,7 +4127,7 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
@@ -4160,7 +4170,7 @@
       <c r="AV32" s="33"/>
       <c r="AW32" s="33"/>
     </row>
-    <row r="33" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -4211,15 +4221,15 @@
       <c r="AV33" s="33"/>
       <c r="AW33" s="33"/>
     </row>
-    <row r="34" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A34" s="4">
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D34" s="9">
         <v>44032</v>
@@ -4272,7 +4282,7 @@
       <c r="AV34" s="33"/>
       <c r="AW34" s="33"/>
     </row>
-    <row r="35" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="12">
         <v>7.1</v>
       </c>
@@ -4294,7 +4304,7 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
@@ -4337,12 +4347,12 @@
       <c r="AV35" s="33"/>
       <c r="AW35" s="33"/>
     </row>
-    <row r="36" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A36" s="12">
         <v>7.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>140</v>
@@ -4359,7 +4369,7 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -4430,16 +4440,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4485,7 +4495,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4508,7 +4518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4584,20 +4594,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -4614,7 +4624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +4641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4665,7 +4675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4716,7 +4726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4733,7 +4743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4750,7 +4760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4767,7 +4777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4784,7 +4794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4801,7 +4811,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +4862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4869,7 +4879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4886,7 +4896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4903,7 +4913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4937,7 +4947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4954,7 +4964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -4971,7 +4981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4988,7 +4998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5005,7 +5015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -5056,7 +5066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -5073,7 +5083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5090,7 +5100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5107,7 +5117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5124,7 +5134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5141,7 +5151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -5158,7 +5168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -5175,7 +5185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -5192,7 +5202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5260,7 +5270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -5277,7 +5287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5294,7 +5304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5311,7 +5321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5328,7 +5338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -5362,7 +5372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -5379,7 +5389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5396,7 +5406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5413,7 +5423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5430,7 +5440,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5447,7 +5457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5464,7 +5474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5481,7 +5491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -5498,7 +5508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5515,7 +5525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5532,7 +5542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5549,7 +5559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -5566,7 +5576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -5583,7 +5593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5600,7 +5610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5617,7 +5627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -5634,7 +5644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5668,7 +5678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -5702,7 +5712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -5719,7 +5729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5736,7 +5746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -5753,7 +5763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -5787,7 +5797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5804,7 +5814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5821,7 +5831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5838,7 +5848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -5855,7 +5865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -5872,7 +5882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -5889,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -5906,7 +5916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -5923,7 +5933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5940,7 +5950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5957,7 +5967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5974,7 +5984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -5991,7 +6001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6008,7 +6018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6025,7 +6035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6042,7 +6052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -6076,7 +6086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -6093,7 +6103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -6110,7 +6120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -6127,7 +6137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -6144,7 +6154,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>85</v>
       </c>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\CalibrateTool\项目文档\管理计划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="96" windowWidth="23892" windowHeight="14532"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
     <sheet name="任务_表" sheetId="1" r:id="rId1"/>
@@ -641,8 +636,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -936,17 +931,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -960,17 +955,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1802,7 +1797,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1834,10 +1829,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1869,7 +1863,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2045,33 +2038,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="28" customWidth="1"/>
-    <col min="9" max="9" width="18.21875" customWidth="1"/>
-    <col min="10" max="49" width="3.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="28" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
+    <col min="10" max="49" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:50">
+      <c r="A1" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C1" s="39" t="s">
@@ -2095,66 +2088,66 @@
       <c r="I1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="J1" s="45">
+      <c r="J1" s="37">
         <v>43990</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="43">
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="35">
         <v>43997</v>
       </c>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="43">
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="35">
         <v>44004</v>
       </c>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43">
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35">
         <v>44011</v>
       </c>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="43">
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="35">
         <v>44018</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="43">
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="35">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="44"/>
-      <c r="AM1" s="44"/>
-      <c r="AN1" s="43">
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="35">
         <v>44032</v>
       </c>
-      <c r="AO1" s="44"/>
-      <c r="AP1" s="44"/>
-      <c r="AQ1" s="44"/>
-      <c r="AR1" s="44"/>
-      <c r="AS1" s="43">
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="35">
         <v>44039</v>
       </c>
-      <c r="AT1" s="44"/>
-      <c r="AU1" s="44"/>
-      <c r="AV1" s="44"/>
-      <c r="AW1" s="44"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="38"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
+      <c r="AW1" s="36"/>
+    </row>
+    <row r="2" spans="1:50">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="E2" s="40"/>
@@ -2283,7 +2276,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="22" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="22" customFormat="1" ht="19.149999999999999" customHeight="1">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2344,7 +2337,7 @@
       <c r="AV3" s="32"/>
       <c r="AW3" s="32"/>
     </row>
-    <row r="4" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
@@ -2412,7 +2405,7 @@
       <c r="AW4" s="32"/>
       <c r="AX4" s="22"/>
     </row>
-    <row r="5" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A5" s="8">
         <v>1.2</v>
       </c>
@@ -2479,7 +2472,7 @@
       <c r="AV5" s="33"/>
       <c r="AW5" s="33"/>
     </row>
-    <row r="6" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="8">
         <v>1.3</v>
       </c>
@@ -2546,7 +2539,7 @@
       <c r="AV6" s="33"/>
       <c r="AW6" s="33"/>
     </row>
-    <row r="7" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="8">
         <v>1.4</v>
       </c>
@@ -2613,7 +2606,7 @@
       <c r="AV7" s="33"/>
       <c r="AW7" s="33"/>
     </row>
-    <row r="8" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="8">
         <v>1.5</v>
       </c>
@@ -2680,7 +2673,7 @@
       <c r="AV8" s="33"/>
       <c r="AW8" s="33"/>
     </row>
-    <row r="9" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -2731,7 +2724,7 @@
       <c r="AV9" s="33"/>
       <c r="AW9" s="33"/>
     </row>
-    <row r="10" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2792,7 +2785,7 @@
       <c r="AV10" s="33"/>
       <c r="AW10" s="33"/>
     </row>
-    <row r="11" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="12">
         <v>2.1</v>
       </c>
@@ -2861,7 +2854,7 @@
       <c r="AV11" s="33"/>
       <c r="AW11" s="33"/>
     </row>
-    <row r="12" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
@@ -2928,7 +2921,7 @@
       <c r="AV12" s="33"/>
       <c r="AW12" s="33"/>
     </row>
-    <row r="13" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2979,7 +2972,7 @@
       <c r="AV13" s="33"/>
       <c r="AW13" s="33"/>
     </row>
-    <row r="14" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>3</v>
       </c>
@@ -3040,7 +3033,7 @@
       <c r="AV14" s="33"/>
       <c r="AW14" s="33"/>
     </row>
-    <row r="15" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="12">
         <v>3.1</v>
       </c>
@@ -3103,7 +3096,7 @@
       <c r="AV15" s="33"/>
       <c r="AW15" s="33"/>
     </row>
-    <row r="16" spans="1:50" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="12">
         <v>3.2</v>
       </c>
@@ -3168,7 +3161,7 @@
       <c r="AV16" s="33"/>
       <c r="AW16" s="33"/>
     </row>
-    <row r="17" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="8">
         <v>3.3</v>
       </c>
@@ -3233,7 +3226,7 @@
       <c r="AV17" s="33"/>
       <c r="AW17" s="33"/>
     </row>
-    <row r="18" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -3284,7 +3277,7 @@
       <c r="AV18" s="33"/>
       <c r="AW18" s="33"/>
     </row>
-    <row r="19" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
@@ -3345,7 +3338,7 @@
       <c r="AV19" s="33"/>
       <c r="AW19" s="33"/>
     </row>
-    <row r="20" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="12">
         <v>4.0999999999999996</v>
       </c>
@@ -3412,7 +3405,7 @@
       <c r="AV20" s="33"/>
       <c r="AW20" s="33"/>
     </row>
-    <row r="21" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="12">
         <v>4.2</v>
       </c>
@@ -3479,7 +3472,7 @@
       <c r="AV21" s="33"/>
       <c r="AW21" s="33"/>
     </row>
-    <row r="22" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="12">
         <v>4.3</v>
       </c>
@@ -3544,7 +3537,7 @@
       <c r="AV22" s="33"/>
       <c r="AW22" s="33"/>
     </row>
-    <row r="23" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="12">
         <v>4.5</v>
       </c>
@@ -3609,7 +3602,7 @@
       <c r="AV23" s="33"/>
       <c r="AW23" s="33"/>
     </row>
-    <row r="24" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="8">
         <v>4.5999999999999996</v>
       </c>
@@ -3674,7 +3667,7 @@
       <c r="AV24" s="33"/>
       <c r="AW24" s="33"/>
     </row>
-    <row r="25" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11"/>
@@ -3725,7 +3718,7 @@
       <c r="AV25" s="33"/>
       <c r="AW25" s="33"/>
     </row>
-    <row r="26" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
@@ -3788,7 +3781,7 @@
       <c r="AV26" s="33"/>
       <c r="AW26" s="33"/>
     </row>
-    <row r="27" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="8">
         <v>5.0999999999999996</v>
       </c>
@@ -3853,7 +3846,7 @@
       <c r="AV27" s="33"/>
       <c r="AW27" s="33"/>
     </row>
-    <row r="28" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="8">
         <v>5.2</v>
       </c>
@@ -3918,7 +3911,7 @@
       <c r="AV28" s="33"/>
       <c r="AW28" s="33"/>
     </row>
-    <row r="29" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -3969,7 +3962,7 @@
       <c r="AV29" s="33"/>
       <c r="AW29" s="33"/>
     </row>
-    <row r="30" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="4">
         <v>6</v>
       </c>
@@ -4030,7 +4023,7 @@
       <c r="AV30" s="33"/>
       <c r="AW30" s="33"/>
     </row>
-    <row r="31" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="12">
         <v>6.1</v>
       </c>
@@ -4095,7 +4088,7 @@
       <c r="AV31" s="33"/>
       <c r="AW31" s="33"/>
     </row>
-    <row r="32" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="8">
         <v>6.6</v>
       </c>
@@ -4160,7 +4153,7 @@
       <c r="AV32" s="33"/>
       <c r="AW32" s="33"/>
     </row>
-    <row r="33" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -4211,7 +4204,7 @@
       <c r="AV33" s="33"/>
       <c r="AW33" s="33"/>
     </row>
-    <row r="34" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A34" s="4">
         <v>7</v>
       </c>
@@ -4272,7 +4265,7 @@
       <c r="AV34" s="33"/>
       <c r="AW34" s="33"/>
     </row>
-    <row r="35" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="12">
         <v>7.1</v>
       </c>
@@ -4337,7 +4330,7 @@
       <c r="AV35" s="33"/>
       <c r="AW35" s="33"/>
     </row>
-    <row r="36" spans="1:49" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A36" s="12">
         <v>7.2</v>
       </c>
@@ -4404,23 +4397,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4430,16 +4423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4485,7 +4478,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4508,7 +4501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4531,7 +4524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -4584,20 +4577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="57.44140625" customWidth="1"/>
-    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="1" max="1" width="57.5" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -4614,7 +4607,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4631,7 +4624,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4648,7 +4641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4665,7 +4658,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4682,7 +4675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4699,7 +4692,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -4733,7 +4726,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4750,7 +4743,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4767,7 +4760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4784,7 +4777,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4801,7 +4794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -4835,7 +4828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4852,7 +4845,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -4869,7 +4862,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -4886,7 +4879,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -4903,7 +4896,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -4920,7 +4913,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -4937,7 +4930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -4954,7 +4947,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -4971,7 +4964,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -4988,7 +4981,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -5005,7 +4998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -5022,7 +5015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5039,7 +5032,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -5056,7 +5049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -5073,7 +5066,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -5090,7 +5083,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -5107,7 +5100,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -5124,7 +5117,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5141,7 +5134,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>48</v>
       </c>
@@ -5158,7 +5151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -5175,7 +5168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -5192,7 +5185,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -5209,7 +5202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5219,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>53</v>
       </c>
@@ -5243,7 +5236,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -5260,7 +5253,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -5277,7 +5270,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5294,7 +5287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>57</v>
       </c>
@@ -5311,7 +5304,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5328,7 +5321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5345,7 +5338,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>60</v>
       </c>
@@ -5362,7 +5355,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>61</v>
       </c>
@@ -5379,7 +5372,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5396,7 +5389,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>63</v>
       </c>
@@ -5413,7 +5406,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5430,7 +5423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5447,7 +5440,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5464,7 +5457,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5481,7 +5474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -5498,7 +5491,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -5515,7 +5508,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5532,7 +5525,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5549,7 +5542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -5566,7 +5559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -5583,7 +5576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -5600,7 +5593,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -5617,7 +5610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>70</v>
       </c>
@@ -5634,7 +5627,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -5651,7 +5644,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -5668,7 +5661,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -5685,7 +5678,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>72</v>
       </c>
@@ -5702,7 +5695,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>73</v>
       </c>
@@ -5719,7 +5712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -5736,7 +5729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>75</v>
       </c>
@@ -5753,7 +5746,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>76</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -5787,7 +5780,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -5804,7 +5797,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -5821,7 +5814,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -5838,7 +5831,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>79</v>
       </c>
@@ -5855,7 +5848,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>80</v>
       </c>
@@ -5872,7 +5865,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -5889,7 +5882,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -5906,7 +5899,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -5923,7 +5916,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -5940,7 +5933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -5957,7 +5950,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -5974,7 +5967,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -5991,7 +5984,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6008,7 +6001,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6025,7 +6018,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6042,7 +6035,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -6059,7 +6052,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -6076,7 +6069,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -6093,7 +6086,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -6110,7 +6103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>85</v>
       </c>
@@ -6127,7 +6120,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>85</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>85</v>
       </c>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="183">
   <si>
     <t>标识号</t>
   </si>
@@ -630,6 +630,10 @@
   </si>
   <si>
     <t>日志记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2059,8 +2063,8 @@
   <dimension ref="A1:AX36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3509,7 +3513,7 @@
       <c r="G22" s="8">
         <v>1.5</v>
       </c>
-      <c r="H22" s="26"/>
+      <c r="H22"/>
       <c r="I22" s="6" t="s">
         <v>145</v>
       </c>
@@ -3574,7 +3578,9 @@
       <c r="G23" s="8">
         <v>4.2</v>
       </c>
-      <c r="H23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>182</v>
+      </c>
       <c r="I23" s="6" t="s">
         <v>136</v>
       </c>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -143,9 +143,6 @@
     <t>执行板开关控制</t>
   </si>
   <si>
-    <t>核心业务软件开发</t>
-  </si>
-  <si>
     <t>模块自识别</t>
   </si>
   <si>
@@ -634,6 +631,10 @@
   </si>
   <si>
     <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心业务软件开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,17 +953,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -976,17 +977,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2064,7 +2065,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2082,93 +2083,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>176</v>
-      </c>
       <c r="C1" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I1" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="J1" s="46">
+        <v>123</v>
+      </c>
+      <c r="J1" s="38">
         <v>43990</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="44">
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="36">
         <v>43997</v>
       </c>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="44">
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="36">
         <v>44004</v>
       </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44">
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36">
         <v>44011</v>
       </c>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="44">
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="36">
         <v>44018</v>
       </c>
-      <c r="AE1" s="45"/>
-      <c r="AF1" s="45"/>
-      <c r="AG1" s="45"/>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="44">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="36">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="45"/>
-      <c r="AK1" s="45"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="45"/>
-      <c r="AN1" s="44">
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="36">
         <v>44032</v>
       </c>
-      <c r="AO1" s="45"/>
-      <c r="AP1" s="45"/>
-      <c r="AQ1" s="45"/>
-      <c r="AR1" s="45"/>
-      <c r="AS1" s="44">
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="36">
         <v>44039</v>
       </c>
-      <c r="AT1" s="45"/>
-      <c r="AU1" s="45"/>
-      <c r="AV1" s="45"/>
-      <c r="AW1" s="45"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="37"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="37"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="47"/>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
@@ -2177,124 +2178,124 @@
       <c r="H2" s="41"/>
       <c r="I2" s="41"/>
       <c r="J2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="L2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="M2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="N2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="N2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="O2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="S2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="T2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="V2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="W2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="X2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="X2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="Y2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="AA2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AB2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AC2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AC2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="AD2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AF2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AG2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AH2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AH2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="AI2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AK2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AK2" s="31" t="s">
+      <c r="AL2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AL2" s="31" t="s">
+      <c r="AM2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AM2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="AN2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AO2" s="31" t="s">
+      <c r="AP2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AP2" s="31" t="s">
+      <c r="AQ2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AQ2" s="31" t="s">
+      <c r="AR2" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="AR2" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="AS2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT2" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="AT2" s="31" t="s">
+      <c r="AU2" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="AU2" s="31" t="s">
+      <c r="AV2" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="AV2" s="31" t="s">
+      <c r="AW2" s="31" t="s">
         <v>122</v>
-      </c>
-      <c r="AW2" s="31" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="22" customFormat="1" ht="19.149999999999999" customHeight="1">
@@ -2302,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D3" s="19">
         <v>43990</v>
@@ -2363,7 +2364,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -2379,10 +2380,10 @@
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J4" s="32"/>
       <c r="K4" s="32"/>
@@ -2431,10 +2432,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D5" s="10">
         <v>43990</v>
@@ -2447,10 +2448,10 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J5" s="33"/>
       <c r="K5" s="33"/>
@@ -2498,10 +2499,10 @@
         <v>1.3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="D6" s="10">
         <v>43997</v>
@@ -2514,10 +2515,10 @@
         <v>1.2</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J6" s="33"/>
       <c r="K6" s="33"/>
@@ -2565,10 +2566,10 @@
         <v>1.4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10">
         <v>43991</v>
@@ -2581,10 +2582,10 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>145</v>
       </c>
       <c r="J7" s="33"/>
       <c r="K7" s="33"/>
@@ -2632,10 +2633,10 @@
         <v>1.5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="10">
         <v>43997</v>
@@ -2648,10 +2649,10 @@
         <v>1.4</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
@@ -2750,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2829,10 +2830,10 @@
         <v>1.2</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J11" s="33"/>
       <c r="K11" s="33"/>
@@ -2880,7 +2881,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
@@ -2896,10 +2897,10 @@
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
@@ -2998,7 +2999,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3059,10 +3060,10 @@
         <v>3.1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D15" s="15">
         <v>44004</v>
@@ -3074,7 +3075,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="26"/>
       <c r="I15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" s="33"/>
       <c r="K15" s="33"/>
@@ -3122,10 +3123,10 @@
         <v>3.2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" s="15">
         <v>44004</v>
@@ -3139,7 +3140,7 @@
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
@@ -3187,10 +3188,10 @@
         <v>3.3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="10">
         <v>44011</v>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="H17" s="26"/>
       <c r="I17" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" s="33"/>
       <c r="K17" s="33"/>
@@ -3303,7 +3304,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>7</v>
@@ -3364,7 +3365,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>36</v>
@@ -3380,10 +3381,10 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" s="33"/>
       <c r="K20" s="33"/>
@@ -3431,7 +3432,7 @@
         <v>4.2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>28</v>
@@ -3447,10 +3448,10 @@
         <v>1.5</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21" s="33"/>
       <c r="K21" s="33"/>
@@ -3498,10 +3499,10 @@
         <v>4.3</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="15">
         <v>44004</v>
@@ -3515,7 +3516,7 @@
       </c>
       <c r="H22"/>
       <c r="I22" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J22" s="33"/>
       <c r="K22" s="33"/>
@@ -3563,10 +3564,10 @@
         <v>4.5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="15">
         <v>44004</v>
@@ -3579,10 +3580,10 @@
         <v>4.2</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" s="33"/>
       <c r="K23" s="33"/>
@@ -3630,10 +3631,10 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D24" s="15">
         <v>44011</v>
@@ -3647,7 +3648,7 @@
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
@@ -3746,7 +3747,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -3761,7 +3762,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="26"/>
       <c r="I26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
@@ -3809,10 +3810,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" s="10">
         <v>44018</v>
@@ -3822,11 +3823,11 @@
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J27" s="33"/>
       <c r="K27" s="33"/>
@@ -3874,10 +3875,10 @@
         <v>5.2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="10">
         <v>44025</v>
@@ -3891,7 +3892,7 @@
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J28" s="33"/>
       <c r="K28" s="33"/>
@@ -3990,10 +3991,10 @@
         <v>6</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="9">
         <v>44018</v>
@@ -4051,10 +4052,10 @@
         <v>6.1</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="15">
         <v>44018</v>
@@ -4068,7 +4069,7 @@
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J31" s="33"/>
       <c r="K31" s="33"/>
@@ -4116,7 +4117,7 @@
         <v>6.6</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>28</v>
@@ -4133,7 +4134,7 @@
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
@@ -4232,10 +4233,10 @@
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D34" s="9">
         <v>44032</v>
@@ -4293,10 +4294,10 @@
         <v>7.1</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="15">
         <v>44032</v>
@@ -4310,7 +4311,7 @@
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J35" s="33"/>
       <c r="K35" s="33"/>
@@ -4358,10 +4359,10 @@
         <v>7.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="15">
         <v>44039</v>
@@ -4375,7 +4376,7 @@
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J36" s="33"/>
       <c r="K36" s="33"/>
@@ -4420,23 +4421,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="AI1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="AS1:AW1"/>
     <mergeCell ref="J1:N1"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:X1"/>
     <mergeCell ref="Y1:AC1"/>
     <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="AI1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4463,31 +4464,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>87</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>88</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>90</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -4498,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4506,19 +4507,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
         <v>96</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
       <c r="I3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" t="s">
         <v>99</v>
-      </c>
-      <c r="J3" t="s">
-        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>5</v>
@@ -4529,19 +4530,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
         <v>101</v>
       </c>
-      <c r="C4" t="s">
-        <v>102</v>
-      </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
         <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>100</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -4552,19 +4553,19 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" t="s">
-        <v>104</v>
-      </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" t="s">
         <v>99</v>
-      </c>
-      <c r="J5" t="s">
-        <v>100</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -4575,19 +4576,19 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
         <v>105</v>
       </c>
-      <c r="C6" t="s">
-        <v>106</v>
-      </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" t="s">
         <v>99</v>
-      </c>
-      <c r="J6" t="s">
-        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
@@ -4615,19 +4616,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>107</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4635,16 +4636,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4652,16 +4653,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4669,16 +4670,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4686,16 +4687,16 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4703,16 +4704,16 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4720,16 +4721,16 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4737,16 +4738,16 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4754,16 +4755,16 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4771,16 +4772,16 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4788,16 +4789,16 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4805,16 +4806,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4822,16 +4823,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4839,16 +4840,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4856,16 +4857,16 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4873,16 +4874,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4890,16 +4891,16 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4907,16 +4908,16 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4924,16 +4925,16 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4941,16 +4942,16 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4958,16 +4959,16 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4975,16 +4976,16 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4992,16 +4993,16 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5009,16 +5010,16 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -5026,16 +5027,16 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -5043,1138 +5044,1138 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
       </c>
       <c r="D55" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
       </c>
       <c r="D59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
       </c>
       <c r="D60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
+++ b/项目文档/管理计划/校准系统_第一阶段_进度计划6_20.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="182">
   <si>
     <t>标识号</t>
   </si>
@@ -410,10 +410,6 @@
   </si>
   <si>
     <t>欧阳玲军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭明东、罗志勇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -614,10 +610,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>延期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10 个工作日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,11 +622,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>核心业务软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>正在进行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>核心业务软件开发</t>
+    <t>延期完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,14 +672,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
@@ -706,6 +694,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -721,11 +725,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
@@ -733,6 +732,11 @@
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -847,11 +851,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -882,14 +886,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -924,13 +928,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -950,8 +951,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,36 +1016,15 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="差" xfId="3" builtinId="27"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="2" builtinId="28"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1583,10 +1613,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>53789</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1595,8 +1625,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11618259" y="4957482"/>
-          <a:ext cx="1165412" cy="8965"/>
+          <a:off x="12817289" y="4807324"/>
+          <a:ext cx="1739152" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1764,6 +1794,231 @@
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接连接符 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14052175" y="5042647"/>
+          <a:ext cx="1479178" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直接连接符 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14040971" y="5255559"/>
+          <a:ext cx="1243853" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接连接符 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="15273618" y="5513294"/>
+          <a:ext cx="1243853" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直接连接符 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14040971" y="3619500"/>
+          <a:ext cx="2005853" cy="11208"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="34925"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直接连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15273618" y="3866029"/>
+          <a:ext cx="1479178" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
@@ -2065,7 +2320,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2075,226 +2330,226 @@
     <col min="3" max="3" width="15.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="20" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="27" customWidth="1"/>
     <col min="7" max="7" width="8.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="28" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="27" customWidth="1"/>
     <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="49" width="3.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="I1" s="40" t="s">
+      <c r="H1" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="53">
         <v>43990</v>
       </c>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="36">
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="51">
         <v>43997</v>
       </c>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="36">
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="51">
         <v>44004</v>
       </c>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51">
         <v>44011</v>
       </c>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="36">
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="51">
         <v>44018</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="36">
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="51">
         <v>44025</v>
       </c>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="36">
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="51">
         <v>44032</v>
       </c>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="37"/>
-      <c r="AR1" s="37"/>
-      <c r="AS1" s="36">
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="51">
         <v>44039</v>
       </c>
-      <c r="AT1" s="37"/>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
     </row>
     <row r="2" spans="1:50">
-      <c r="A2" s="45"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="34" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="N2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="V2" s="31" t="s">
+      <c r="V2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AA2" s="31" t="s">
+      <c r="AA2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AB2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AC2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AD2" s="31" t="s">
+      <c r="AD2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AE2" s="31" t="s">
+      <c r="AE2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AF2" s="31" t="s">
+      <c r="AF2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AG2" s="31" t="s">
+      <c r="AG2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AH2" s="31" t="s">
+      <c r="AH2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AK2" s="31" t="s">
+      <c r="AK2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AL2" s="31" t="s">
+      <c r="AL2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AM2" s="31" t="s">
+      <c r="AM2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="31" t="s">
+      <c r="AN2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AO2" s="31" t="s">
+      <c r="AO2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AP2" s="31" t="s">
+      <c r="AP2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AQ2" s="31" t="s">
+      <c r="AQ2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AR2" s="31" t="s">
+      <c r="AR2" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="AS2" s="31" t="s">
+      <c r="AS2" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="AT2" s="31" t="s">
+      <c r="AT2" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="AU2" s="31" t="s">
+      <c r="AU2" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="AV2" s="31" t="s">
+      <c r="AV2" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="AW2" s="31" t="s">
+      <c r="AW2" s="30" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2303,10 +2558,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="19">
         <v>43990</v>
@@ -2314,57 +2569,57 @@
       <c r="E3" s="19">
         <v>44001</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="38"/>
       <c r="G3" s="20"/>
       <c r="H3" s="23"/>
       <c r="I3" s="21"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="32"/>
-      <c r="AJ3" s="32"/>
-      <c r="AK3" s="32"/>
-      <c r="AL3" s="32"/>
-      <c r="AM3" s="32"/>
-      <c r="AN3" s="32"/>
-      <c r="AO3" s="32"/>
-      <c r="AP3" s="32"/>
-      <c r="AQ3" s="32"/>
-      <c r="AR3" s="32"/>
-      <c r="AS3" s="32"/>
-      <c r="AT3" s="32"/>
-      <c r="AU3" s="32"/>
-      <c r="AV3" s="32"/>
-      <c r="AW3" s="32"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
     </row>
     <row r="4" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A4" s="8">
         <v>1.1000000000000001</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
@@ -2372,59 +2627,59 @@
       <c r="D4" s="10">
         <v>43990</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>43990</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="39">
         <v>43990</v>
       </c>
       <c r="G4" s="20"/>
-      <c r="H4" s="30" t="s">
-        <v>130</v>
+      <c r="H4" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="32"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="31"/>
+      <c r="AS4" s="31"/>
+      <c r="AT4" s="31"/>
+      <c r="AU4" s="31"/>
+      <c r="AV4" s="31"/>
+      <c r="AW4" s="31"/>
       <c r="AX4" s="22"/>
     </row>
     <row r="5" spans="1:50" ht="19.149999999999999" customHeight="1">
@@ -2432,10 +2687,10 @@
         <v>1.2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D5" s="10">
         <v>43990</v>
@@ -2443,66 +2698,66 @@
       <c r="E5" s="10">
         <v>43994</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="40">
         <v>43994</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="33"/>
-      <c r="AR5" s="33"/>
-      <c r="AS5" s="33"/>
-      <c r="AT5" s="33"/>
-      <c r="AU5" s="33"/>
-      <c r="AV5" s="33"/>
-      <c r="AW5" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="32"/>
+      <c r="AK5" s="32"/>
+      <c r="AL5" s="32"/>
+      <c r="AM5" s="32"/>
+      <c r="AN5" s="32"/>
+      <c r="AO5" s="32"/>
+      <c r="AP5" s="32"/>
+      <c r="AQ5" s="32"/>
+      <c r="AR5" s="32"/>
+      <c r="AS5" s="32"/>
+      <c r="AT5" s="32"/>
+      <c r="AU5" s="32"/>
+      <c r="AV5" s="32"/>
+      <c r="AW5" s="32"/>
     </row>
     <row r="6" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A6" s="8">
         <v>1.3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="D6" s="10">
         <v>43997</v>
@@ -2510,66 +2765,66 @@
       <c r="E6" s="10">
         <v>44001</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8">
         <v>1.2</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>179</v>
+      <c r="H6" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
+        <v>144</v>
+      </c>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="32"/>
+      <c r="S6" s="32"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="32"/>
+      <c r="X6" s="32"/>
+      <c r="Y6" s="32"/>
+      <c r="Z6" s="32"/>
+      <c r="AA6" s="32"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="32"/>
+      <c r="AP6" s="32"/>
+      <c r="AQ6" s="32"/>
+      <c r="AR6" s="32"/>
+      <c r="AS6" s="32"/>
+      <c r="AT6" s="32"/>
+      <c r="AU6" s="32"/>
+      <c r="AV6" s="32"/>
+      <c r="AW6" s="32"/>
     </row>
     <row r="7" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A7" s="8">
         <v>1.4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" s="10">
         <v>43991</v>
@@ -2577,66 +2832,66 @@
       <c r="E7" s="10">
         <v>43992</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="40">
         <v>43992</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="32"/>
+      <c r="AN7" s="32"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
+      <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="32"/>
+      <c r="AV7" s="32"/>
+      <c r="AW7" s="32"/>
     </row>
     <row r="8" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A8" s="8">
         <v>1.5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D8" s="10">
         <v>43997</v>
@@ -2644,56 +2899,56 @@
       <c r="E8" s="10">
         <v>44001</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="8">
         <v>1.4</v>
       </c>
-      <c r="H8" s="35" t="s">
-        <v>179</v>
+      <c r="H8" s="34" t="s">
+        <v>177</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="33"/>
-      <c r="AD8" s="33"/>
-      <c r="AE8" s="33"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="33"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="33"/>
-      <c r="AJ8" s="33"/>
-      <c r="AK8" s="33"/>
-      <c r="AL8" s="33"/>
-      <c r="AM8" s="33"/>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="33"/>
-      <c r="AP8" s="33"/>
-      <c r="AQ8" s="33"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="33"/>
-      <c r="AT8" s="33"/>
-      <c r="AU8" s="33"/>
-      <c r="AV8" s="33"/>
-      <c r="AW8" s="33"/>
+        <v>172</v>
+      </c>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="32"/>
+      <c r="AK8" s="32"/>
+      <c r="AL8" s="32"/>
+      <c r="AM8" s="32"/>
+      <c r="AN8" s="32"/>
+      <c r="AO8" s="32"/>
+      <c r="AP8" s="32"/>
+      <c r="AQ8" s="32"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="32"/>
+      <c r="AT8" s="32"/>
+      <c r="AU8" s="32"/>
+      <c r="AV8" s="32"/>
+      <c r="AW8" s="32"/>
     </row>
     <row r="9" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A9" s="8"/>
@@ -2701,57 +2956,57 @@
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="8"/>
       <c r="H9"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32"/>
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32"/>
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32"/>
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
     </row>
     <row r="10" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -2762,50 +3017,50 @@
       <c r="E10" s="9">
         <v>44001</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="8"/>
       <c r="H10" s="26"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="33"/>
-      <c r="AI10" s="33"/>
-      <c r="AJ10" s="33"/>
-      <c r="AK10" s="33"/>
-      <c r="AL10" s="33"/>
-      <c r="AM10" s="33"/>
-      <c r="AN10" s="33"/>
-      <c r="AO10" s="33"/>
-      <c r="AP10" s="33"/>
-      <c r="AQ10" s="33"/>
-      <c r="AR10" s="33"/>
-      <c r="AS10" s="33"/>
-      <c r="AT10" s="33"/>
-      <c r="AU10" s="33"/>
-      <c r="AV10" s="33"/>
-      <c r="AW10" s="33"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="32"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
     </row>
     <row r="11" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A11" s="12">
@@ -2823,65 +3078,65 @@
       <c r="E11" s="15">
         <v>43999</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="42">
         <v>44000</v>
       </c>
       <c r="G11" s="12">
         <v>1.2</v>
       </c>
-      <c r="H11" s="27" t="s">
-        <v>130</v>
+      <c r="H11" s="25" t="s">
+        <v>181</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="33"/>
-      <c r="AE11" s="33"/>
-      <c r="AF11" s="33"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="33"/>
-      <c r="AI11" s="33"/>
-      <c r="AJ11" s="33"/>
-      <c r="AK11" s="33"/>
-      <c r="AL11" s="33"/>
-      <c r="AM11" s="33"/>
-      <c r="AN11" s="33"/>
-      <c r="AO11" s="33"/>
-      <c r="AP11" s="33"/>
-      <c r="AQ11" s="33"/>
-      <c r="AR11" s="33"/>
-      <c r="AS11" s="33"/>
-      <c r="AT11" s="33"/>
-      <c r="AU11" s="33"/>
-      <c r="AV11" s="33"/>
-      <c r="AW11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="32"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="32"/>
+      <c r="AK11" s="32"/>
+      <c r="AL11" s="32"/>
+      <c r="AM11" s="32"/>
+      <c r="AN11" s="32"/>
+      <c r="AO11" s="32"/>
+      <c r="AP11" s="32"/>
+      <c r="AQ11" s="32"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="32"/>
+      <c r="AT11" s="32"/>
+      <c r="AU11" s="32"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="32"/>
     </row>
     <row r="12" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A12" s="12">
         <v>2.2000000000000002</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>17</v>
@@ -2892,56 +3147,56 @@
       <c r="E12" s="15">
         <v>44001</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="42">
         <v>44001</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="33"/>
-      <c r="AD12" s="33"/>
-      <c r="AE12" s="33"/>
-      <c r="AF12" s="33"/>
-      <c r="AG12" s="33"/>
-      <c r="AH12" s="33"/>
-      <c r="AI12" s="33"/>
-      <c r="AJ12" s="33"/>
-      <c r="AK12" s="33"/>
-      <c r="AL12" s="33"/>
-      <c r="AM12" s="33"/>
-      <c r="AN12" s="33"/>
-      <c r="AO12" s="33"/>
-      <c r="AP12" s="33"/>
-      <c r="AQ12" s="33"/>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
+        <v>156</v>
+      </c>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="32"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="32"/>
+      <c r="AK12" s="32"/>
+      <c r="AL12" s="32"/>
+      <c r="AM12" s="32"/>
+      <c r="AN12" s="32"/>
+      <c r="AO12" s="32"/>
+      <c r="AP12" s="32"/>
+      <c r="AQ12" s="32"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="32"/>
+      <c r="AT12" s="32"/>
+      <c r="AU12" s="32"/>
+      <c r="AV12" s="32"/>
+      <c r="AW12" s="32"/>
     </row>
     <row r="13" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A13" s="8"/>
@@ -2949,57 +3204,57 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="26"/>
       <c r="G13" s="8"/>
       <c r="H13" s="26"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="33"/>
-      <c r="AD13" s="33"/>
-      <c r="AE13" s="33"/>
-      <c r="AF13" s="33"/>
-      <c r="AG13" s="33"/>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="33"/>
-      <c r="AJ13" s="33"/>
-      <c r="AK13" s="33"/>
-      <c r="AL13" s="33"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="33"/>
-      <c r="AO13" s="33"/>
-      <c r="AP13" s="33"/>
-      <c r="AQ13" s="33"/>
-      <c r="AR13" s="33"/>
-      <c r="AS13" s="33"/>
-      <c r="AT13" s="33"/>
-      <c r="AU13" s="33"/>
-      <c r="AV13" s="33"/>
-      <c r="AW13" s="33"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="32"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="32"/>
+      <c r="AP13" s="32"/>
+      <c r="AQ13" s="32"/>
+      <c r="AR13" s="32"/>
+      <c r="AS13" s="32"/>
+      <c r="AT13" s="32"/>
+      <c r="AU13" s="32"/>
+      <c r="AV13" s="32"/>
+      <c r="AW13" s="32"/>
     </row>
     <row r="14" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A14" s="4">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>21</v>
@@ -3010,60 +3265,60 @@
       <c r="E14" s="9">
         <v>44015</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="8"/>
       <c r="H14" s="26"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="33"/>
-      <c r="AL14" s="33"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="33"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
+      <c r="AA14" s="32"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="32"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
+      <c r="AQ14" s="32"/>
+      <c r="AR14" s="32"/>
+      <c r="AS14" s="32"/>
+      <c r="AT14" s="32"/>
+      <c r="AU14" s="32"/>
+      <c r="AV14" s="32"/>
+      <c r="AW14" s="32"/>
     </row>
     <row r="15" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A15" s="12">
         <v>3.1</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D15" s="15">
         <v>44004</v>
@@ -3071,62 +3326,62 @@
       <c r="E15" s="15">
         <v>44008</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="8"/>
       <c r="H15" s="26"/>
       <c r="I15" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="33"/>
-      <c r="AD15" s="33"/>
-      <c r="AE15" s="33"/>
-      <c r="AF15" s="33"/>
-      <c r="AG15" s="33"/>
-      <c r="AH15" s="33"/>
-      <c r="AI15" s="33"/>
-      <c r="AJ15" s="33"/>
-      <c r="AK15" s="33"/>
-      <c r="AL15" s="33"/>
-      <c r="AM15" s="33"/>
-      <c r="AN15" s="33"/>
-      <c r="AO15" s="33"/>
-      <c r="AP15" s="33"/>
-      <c r="AQ15" s="33"/>
-      <c r="AR15" s="33"/>
-      <c r="AS15" s="33"/>
-      <c r="AT15" s="33"/>
-      <c r="AU15" s="33"/>
-      <c r="AV15" s="33"/>
-      <c r="AW15" s="33"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="32"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="32"/>
+      <c r="AP15" s="32"/>
+      <c r="AQ15" s="32"/>
+      <c r="AR15" s="32"/>
+      <c r="AS15" s="32"/>
+      <c r="AT15" s="32"/>
+      <c r="AU15" s="32"/>
+      <c r="AV15" s="32"/>
+      <c r="AW15" s="32"/>
     </row>
     <row r="16" spans="1:50" ht="19.149999999999999" customHeight="1">
       <c r="A16" s="12">
         <v>3.2</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D16" s="15">
         <v>44004</v>
@@ -3134,64 +3389,66 @@
       <c r="E16" s="15">
         <v>44008</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="8">
         <v>1.4</v>
       </c>
-      <c r="H16" s="26"/>
+      <c r="H16" s="55" t="s">
+        <v>180</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="33"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="33"/>
-      <c r="AH16" s="33"/>
-      <c r="AI16" s="33"/>
-      <c r="AJ16" s="33"/>
-      <c r="AK16" s="33"/>
-      <c r="AL16" s="33"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="33"/>
-      <c r="AO16" s="33"/>
-      <c r="AP16" s="33"/>
-      <c r="AQ16" s="33"/>
-      <c r="AR16" s="33"/>
-      <c r="AS16" s="33"/>
-      <c r="AT16" s="33"/>
-      <c r="AU16" s="33"/>
-      <c r="AV16" s="33"/>
-      <c r="AW16" s="33"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32"/>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
     </row>
     <row r="17" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A17" s="8">
         <v>3.3</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D17" s="10">
         <v>44011</v>
@@ -3199,54 +3456,56 @@
       <c r="E17" s="10">
         <v>44015</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="8">
         <v>3.2</v>
       </c>
-      <c r="H17" s="26"/>
+      <c r="H17" s="37" t="s">
+        <v>180</v>
+      </c>
       <c r="I17" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
+      <c r="AA17" s="32"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="32"/>
+      <c r="AP17" s="32"/>
+      <c r="AQ17" s="32"/>
+      <c r="AR17" s="32"/>
+      <c r="AS17" s="32"/>
+      <c r="AT17" s="32"/>
+      <c r="AU17" s="32"/>
+      <c r="AV17" s="32"/>
+      <c r="AW17" s="32"/>
     </row>
     <row r="18" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A18" s="8"/>
@@ -3254,57 +3513,57 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="8"/>
       <c r="H18" s="26"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="33"/>
-      <c r="AE18" s="33"/>
-      <c r="AF18" s="33"/>
-      <c r="AG18" s="33"/>
-      <c r="AH18" s="33"/>
-      <c r="AI18" s="33"/>
-      <c r="AJ18" s="33"/>
-      <c r="AK18" s="33"/>
-      <c r="AL18" s="33"/>
-      <c r="AM18" s="33"/>
-      <c r="AN18" s="33"/>
-      <c r="AO18" s="33"/>
-      <c r="AP18" s="33"/>
-      <c r="AQ18" s="33"/>
-      <c r="AR18" s="33"/>
-      <c r="AS18" s="33"/>
-      <c r="AT18" s="33"/>
-      <c r="AU18" s="33"/>
-      <c r="AV18" s="33"/>
-      <c r="AW18" s="33"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
+      <c r="AA18" s="32"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="32"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="32"/>
+      <c r="AP18" s="32"/>
+      <c r="AQ18" s="32"/>
+      <c r="AR18" s="32"/>
+      <c r="AS18" s="32"/>
+      <c r="AT18" s="32"/>
+      <c r="AU18" s="32"/>
+      <c r="AV18" s="32"/>
+      <c r="AW18" s="32"/>
     </row>
     <row r="19" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A19" s="4">
         <v>4</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>7</v>
@@ -3315,57 +3574,57 @@
       <c r="E19" s="9">
         <v>44015</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="8"/>
       <c r="H19" s="26"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="33"/>
-      <c r="AH19" s="33"/>
-      <c r="AI19" s="33"/>
-      <c r="AJ19" s="33"/>
-      <c r="AK19" s="33"/>
-      <c r="AL19" s="33"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="33"/>
-      <c r="AO19" s="33"/>
-      <c r="AP19" s="33"/>
-      <c r="AQ19" s="33"/>
-      <c r="AR19" s="33"/>
-      <c r="AS19" s="33"/>
-      <c r="AT19" s="33"/>
-      <c r="AU19" s="33"/>
-      <c r="AV19" s="33"/>
-      <c r="AW19" s="33"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="32"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="32"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="32"/>
+      <c r="AP19" s="32"/>
+      <c r="AQ19" s="32"/>
+      <c r="AR19" s="32"/>
+      <c r="AS19" s="32"/>
+      <c r="AT19" s="32"/>
+      <c r="AU19" s="32"/>
+      <c r="AV19" s="32"/>
+      <c r="AW19" s="32"/>
     </row>
     <row r="20" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A20" s="12">
         <v>4.0999999999999996</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>36</v>
@@ -3376,63 +3635,63 @@
       <c r="E20" s="15">
         <v>44000</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="42">
         <v>44000</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="33"/>
-      <c r="AG20" s="33"/>
-      <c r="AH20" s="33"/>
-      <c r="AI20" s="33"/>
-      <c r="AJ20" s="33"/>
-      <c r="AK20" s="33"/>
-      <c r="AL20" s="33"/>
-      <c r="AM20" s="33"/>
-      <c r="AN20" s="33"/>
-      <c r="AO20" s="33"/>
-      <c r="AP20" s="33"/>
-      <c r="AQ20" s="33"/>
-      <c r="AR20" s="33"/>
-      <c r="AS20" s="33"/>
-      <c r="AT20" s="33"/>
-      <c r="AU20" s="33"/>
-      <c r="AV20" s="33"/>
-      <c r="AW20" s="33"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
     </row>
     <row r="21" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A21" s="12">
         <v>4.2</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>28</v>
@@ -3443,56 +3702,58 @@
       <c r="E21" s="15">
         <v>44001</v>
       </c>
-      <c r="F21" s="9"/>
+      <c r="F21" s="42">
+        <v>44006</v>
+      </c>
       <c r="G21" s="8">
         <v>1.5</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="33"/>
-      <c r="AG21" s="33"/>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="33"/>
-      <c r="AJ21" s="33"/>
-      <c r="AK21" s="33"/>
-      <c r="AL21" s="33"/>
-      <c r="AM21" s="33"/>
-      <c r="AN21" s="33"/>
-      <c r="AO21" s="33"/>
-      <c r="AP21" s="33"/>
-      <c r="AQ21" s="33"/>
-      <c r="AR21" s="33"/>
-      <c r="AS21" s="33"/>
-      <c r="AT21" s="33"/>
-      <c r="AU21" s="33"/>
-      <c r="AV21" s="33"/>
-      <c r="AW21" s="33"/>
+        <v>157</v>
+      </c>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+      <c r="AB21" s="32"/>
+      <c r="AC21" s="32"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="32"/>
+      <c r="AP21" s="32"/>
+      <c r="AQ21" s="32"/>
+      <c r="AR21" s="32"/>
+      <c r="AS21" s="32"/>
+      <c r="AT21" s="32"/>
+      <c r="AU21" s="32"/>
+      <c r="AV21" s="32"/>
+      <c r="AW21" s="32"/>
     </row>
     <row r="22" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A22" s="12">
@@ -3502,7 +3763,7 @@
         <v>45</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="15">
         <v>44004</v>
@@ -3510,64 +3771,68 @@
       <c r="E22" s="15">
         <v>44006</v>
       </c>
-      <c r="F22" s="9"/>
+      <c r="F22" s="42">
+        <v>44012</v>
+      </c>
       <c r="G22" s="8">
         <v>1.5</v>
       </c>
-      <c r="H22"/>
+      <c r="H22" s="35" t="s">
+        <v>181</v>
+      </c>
       <c r="I22" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="33"/>
-      <c r="AJ22" s="33"/>
-      <c r="AK22" s="33"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="33"/>
-      <c r="AO22" s="33"/>
-      <c r="AP22" s="33"/>
-      <c r="AQ22" s="33"/>
-      <c r="AR22" s="33"/>
-      <c r="AS22" s="33"/>
-      <c r="AT22" s="33"/>
-      <c r="AU22" s="33"/>
-      <c r="AV22" s="33"/>
-      <c r="AW22" s="33"/>
+        <v>143</v>
+      </c>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
     </row>
     <row r="23" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A23" s="12">
         <v>4.5</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D23" s="15">
         <v>44004</v>
@@ -3575,66 +3840,68 @@
       <c r="E23" s="15">
         <v>44008</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="40">
+        <v>44011</v>
+      </c>
       <c r="G23" s="8">
         <v>4.2</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="36" t="s">
         <v>181</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="33"/>
-      <c r="AD23" s="33"/>
-      <c r="AE23" s="33"/>
-      <c r="AF23" s="33"/>
-      <c r="AG23" s="33"/>
-      <c r="AH23" s="33"/>
-      <c r="AI23" s="33"/>
-      <c r="AJ23" s="33"/>
-      <c r="AK23" s="33"/>
-      <c r="AL23" s="33"/>
-      <c r="AM23" s="33"/>
-      <c r="AN23" s="33"/>
-      <c r="AO23" s="33"/>
-      <c r="AP23" s="33"/>
-      <c r="AQ23" s="33"/>
-      <c r="AR23" s="33"/>
-      <c r="AS23" s="33"/>
-      <c r="AT23" s="33"/>
-      <c r="AU23" s="33"/>
-      <c r="AV23" s="33"/>
-      <c r="AW23" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="32"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="32"/>
+      <c r="AK23" s="32"/>
+      <c r="AL23" s="32"/>
+      <c r="AM23" s="32"/>
+      <c r="AN23" s="32"/>
+      <c r="AO23" s="32"/>
+      <c r="AP23" s="32"/>
+      <c r="AQ23" s="32"/>
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
     </row>
     <row r="24" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A24" s="8">
         <v>4.5999999999999996</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D24" s="15">
         <v>44011</v>
@@ -3642,54 +3909,56 @@
       <c r="E24" s="15">
         <v>44015</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="8">
         <v>4.5</v>
       </c>
-      <c r="H24" s="26"/>
+      <c r="H24" s="37" t="s">
+        <v>180</v>
+      </c>
       <c r="I24" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="33"/>
-      <c r="AD24" s="33"/>
-      <c r="AE24" s="33"/>
-      <c r="AF24" s="33"/>
-      <c r="AG24" s="33"/>
-      <c r="AH24" s="33"/>
-      <c r="AI24" s="33"/>
-      <c r="AJ24" s="33"/>
-      <c r="AK24" s="33"/>
-      <c r="AL24" s="33"/>
-      <c r="AM24" s="33"/>
-      <c r="AN24" s="33"/>
-      <c r="AO24" s="33"/>
-      <c r="AP24" s="33"/>
-      <c r="AQ24" s="33"/>
-      <c r="AR24" s="33"/>
-      <c r="AS24" s="33"/>
-      <c r="AT24" s="33"/>
-      <c r="AU24" s="33"/>
-      <c r="AV24" s="33"/>
-      <c r="AW24" s="33"/>
+        <v>160</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="32"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="32"/>
+      <c r="AK24" s="32"/>
+      <c r="AL24" s="32"/>
+      <c r="AM24" s="32"/>
+      <c r="AN24" s="32"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="32"/>
+      <c r="AT24" s="32"/>
+      <c r="AU24" s="32"/>
+      <c r="AV24" s="32"/>
+      <c r="AW24" s="32"/>
     </row>
     <row r="25" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A25" s="8"/>
@@ -3697,57 +3966,57 @@
       <c r="C25" s="11"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="8"/>
       <c r="H25" s="26"/>
       <c r="I25" s="6"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="33"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="33"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="33"/>
-      <c r="AH25" s="33"/>
-      <c r="AI25" s="33"/>
-      <c r="AJ25" s="33"/>
-      <c r="AK25" s="33"/>
-      <c r="AL25" s="33"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="33"/>
-      <c r="AO25" s="33"/>
-      <c r="AP25" s="33"/>
-      <c r="AQ25" s="33"/>
-      <c r="AR25" s="33"/>
-      <c r="AS25" s="33"/>
-      <c r="AT25" s="33"/>
-      <c r="AU25" s="33"/>
-      <c r="AV25" s="33"/>
-      <c r="AW25" s="33"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="32"/>
+      <c r="AP25" s="32"/>
+      <c r="AQ25" s="32"/>
+      <c r="AR25" s="32"/>
+      <c r="AS25" s="32"/>
+      <c r="AT25" s="32"/>
+      <c r="AU25" s="32"/>
+      <c r="AV25" s="32"/>
+      <c r="AW25" s="32"/>
     </row>
     <row r="26" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A26" s="4">
         <v>5</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
@@ -3758,62 +4027,60 @@
       <c r="E26" s="9">
         <v>44029</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="40"/>
       <c r="G26" s="8"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="33"/>
-      <c r="AD26" s="33"/>
-      <c r="AE26" s="33"/>
-      <c r="AF26" s="33"/>
-      <c r="AG26" s="33"/>
-      <c r="AH26" s="33"/>
-      <c r="AI26" s="33"/>
-      <c r="AJ26" s="33"/>
-      <c r="AK26" s="33"/>
-      <c r="AL26" s="33"/>
-      <c r="AM26" s="33"/>
-      <c r="AN26" s="33"/>
-      <c r="AO26" s="33"/>
-      <c r="AP26" s="33"/>
-      <c r="AQ26" s="33"/>
-      <c r="AR26" s="33"/>
-      <c r="AS26" s="33"/>
-      <c r="AT26" s="33"/>
-      <c r="AU26" s="33"/>
-      <c r="AV26" s="33"/>
-      <c r="AW26" s="33"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+      <c r="Z26" s="32"/>
+      <c r="AA26" s="32"/>
+      <c r="AB26" s="32"/>
+      <c r="AC26" s="32"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+      <c r="AO26" s="32"/>
+      <c r="AP26" s="32"/>
+      <c r="AQ26" s="32"/>
+      <c r="AR26" s="32"/>
+      <c r="AS26" s="32"/>
+      <c r="AT26" s="32"/>
+      <c r="AU26" s="32"/>
+      <c r="AV26" s="32"/>
+      <c r="AW26" s="32"/>
     </row>
     <row r="27" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A27" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="10">
         <v>44018</v>
@@ -3821,64 +4088,64 @@
       <c r="E27" s="10">
         <v>44022</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="40"/>
       <c r="G27" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="33"/>
-      <c r="AD27" s="33"/>
-      <c r="AE27" s="33"/>
-      <c r="AF27" s="33"/>
-      <c r="AG27" s="33"/>
-      <c r="AH27" s="33"/>
-      <c r="AI27" s="33"/>
-      <c r="AJ27" s="33"/>
-      <c r="AK27" s="33"/>
-      <c r="AL27" s="33"/>
-      <c r="AM27" s="33"/>
-      <c r="AN27" s="33"/>
-      <c r="AO27" s="33"/>
-      <c r="AP27" s="33"/>
-      <c r="AQ27" s="33"/>
-      <c r="AR27" s="33"/>
-      <c r="AS27" s="33"/>
-      <c r="AT27" s="33"/>
-      <c r="AU27" s="33"/>
-      <c r="AV27" s="33"/>
-      <c r="AW27" s="33"/>
+        <v>172</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
+      <c r="AB27" s="32"/>
+      <c r="AC27" s="32"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="32"/>
+      <c r="AK27" s="32"/>
+      <c r="AL27" s="32"/>
+      <c r="AM27" s="32"/>
+      <c r="AN27" s="32"/>
+      <c r="AO27" s="32"/>
+      <c r="AP27" s="32"/>
+      <c r="AQ27" s="32"/>
+      <c r="AR27" s="32"/>
+      <c r="AS27" s="32"/>
+      <c r="AT27" s="32"/>
+      <c r="AU27" s="32"/>
+      <c r="AV27" s="32"/>
+      <c r="AW27" s="32"/>
     </row>
     <row r="28" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A28" s="8">
         <v>5.2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D28" s="10">
         <v>44025</v>
@@ -3886,54 +4153,54 @@
       <c r="E28" s="10">
         <v>44029</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="40"/>
       <c r="G28" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="33"/>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="33"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="33"/>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
+        <v>172</v>
+      </c>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
     </row>
     <row r="29" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A29" s="8"/>
@@ -3941,50 +4208,50 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="8"/>
       <c r="H29" s="26"/>
       <c r="I29" s="6"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="33"/>
-      <c r="AD29" s="33"/>
-      <c r="AE29" s="33"/>
-      <c r="AF29" s="33"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="33"/>
-      <c r="AJ29" s="33"/>
-      <c r="AK29" s="33"/>
-      <c r="AL29" s="33"/>
-      <c r="AM29" s="33"/>
-      <c r="AN29" s="33"/>
-      <c r="AO29" s="33"/>
-      <c r="AP29" s="33"/>
-      <c r="AQ29" s="33"/>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="32"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="32"/>
+      <c r="AK29" s="32"/>
+      <c r="AL29" s="32"/>
+      <c r="AM29" s="32"/>
+      <c r="AN29" s="32"/>
+      <c r="AO29" s="32"/>
+      <c r="AP29" s="32"/>
+      <c r="AQ29" s="32"/>
+      <c r="AR29" s="32"/>
+      <c r="AS29" s="32"/>
+      <c r="AT29" s="32"/>
+      <c r="AU29" s="32"/>
+      <c r="AV29" s="32"/>
+      <c r="AW29" s="32"/>
     </row>
     <row r="30" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A30" s="4">
@@ -3994,7 +4261,7 @@
         <v>72</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D30" s="9">
         <v>44018</v>
@@ -4002,50 +4269,50 @@
       <c r="E30" s="9">
         <v>44029</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="8"/>
       <c r="H30" s="26"/>
       <c r="I30" s="6"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="32"/>
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="32"/>
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="32"/>
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
     </row>
     <row r="31" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A31" s="12">
@@ -4055,7 +4322,7 @@
         <v>73</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D31" s="15">
         <v>44018</v>
@@ -4063,54 +4330,54 @@
       <c r="E31" s="15">
         <v>44022</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="40"/>
       <c r="G31" s="8">
         <v>4</v>
       </c>
       <c r="H31" s="26"/>
       <c r="I31" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="33"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="33"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="33"/>
-      <c r="AH31" s="33"/>
-      <c r="AI31" s="33"/>
-      <c r="AJ31" s="33"/>
-      <c r="AK31" s="33"/>
-      <c r="AL31" s="33"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="33"/>
-      <c r="AO31" s="33"/>
-      <c r="AP31" s="33"/>
-      <c r="AQ31" s="33"/>
-      <c r="AR31" s="33"/>
-      <c r="AS31" s="33"/>
-      <c r="AT31" s="33"/>
-      <c r="AU31" s="33"/>
-      <c r="AV31" s="33"/>
-      <c r="AW31" s="33"/>
+        <v>127</v>
+      </c>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="32"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="32"/>
+      <c r="AP31" s="32"/>
+      <c r="AQ31" s="32"/>
+      <c r="AR31" s="32"/>
+      <c r="AS31" s="32"/>
+      <c r="AT31" s="32"/>
+      <c r="AU31" s="32"/>
+      <c r="AV31" s="32"/>
+      <c r="AW31" s="32"/>
     </row>
     <row r="32" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A32" s="8">
@@ -4128,54 +4395,54 @@
       <c r="E32" s="10">
         <v>44029</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="26"/>
       <c r="G32" s="8">
         <v>6.1</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="33"/>
-      <c r="AD32" s="33"/>
-      <c r="AE32" s="33"/>
-      <c r="AF32" s="33"/>
-      <c r="AG32" s="33"/>
-      <c r="AH32" s="33"/>
-      <c r="AI32" s="33"/>
-      <c r="AJ32" s="33"/>
-      <c r="AK32" s="33"/>
-      <c r="AL32" s="33"/>
-      <c r="AM32" s="33"/>
-      <c r="AN32" s="33"/>
-      <c r="AO32" s="33"/>
-      <c r="AP32" s="33"/>
-      <c r="AQ32" s="33"/>
-      <c r="AR32" s="33"/>
-      <c r="AS32" s="33"/>
-      <c r="AT32" s="33"/>
-      <c r="AU32" s="33"/>
-      <c r="AV32" s="33"/>
-      <c r="AW32" s="33"/>
+        <v>167</v>
+      </c>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+      <c r="AB32" s="32"/>
+      <c r="AC32" s="32"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="32"/>
+      <c r="AK32" s="32"/>
+      <c r="AL32" s="32"/>
+      <c r="AM32" s="32"/>
+      <c r="AN32" s="32"/>
+      <c r="AO32" s="32"/>
+      <c r="AP32" s="32"/>
+      <c r="AQ32" s="32"/>
+      <c r="AR32" s="32"/>
+      <c r="AS32" s="32"/>
+      <c r="AT32" s="32"/>
+      <c r="AU32" s="32"/>
+      <c r="AV32" s="32"/>
+      <c r="AW32" s="32"/>
     </row>
     <row r="33" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A33" s="8"/>
@@ -4183,60 +4450,60 @@
       <c r="C33" s="7"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="26"/>
       <c r="G33" s="8"/>
       <c r="H33" s="26"/>
       <c r="I33" s="6"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="33"/>
-      <c r="AD33" s="33"/>
-      <c r="AE33" s="33"/>
-      <c r="AF33" s="33"/>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="33"/>
-      <c r="AI33" s="33"/>
-      <c r="AJ33" s="33"/>
-      <c r="AK33" s="33"/>
-      <c r="AL33" s="33"/>
-      <c r="AM33" s="33"/>
-      <c r="AN33" s="33"/>
-      <c r="AO33" s="33"/>
-      <c r="AP33" s="33"/>
-      <c r="AQ33" s="33"/>
-      <c r="AR33" s="33"/>
-      <c r="AS33" s="33"/>
-      <c r="AT33" s="33"/>
-      <c r="AU33" s="33"/>
-      <c r="AV33" s="33"/>
-      <c r="AW33" s="33"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+      <c r="Z33" s="32"/>
+      <c r="AA33" s="32"/>
+      <c r="AB33" s="32"/>
+      <c r="AC33" s="32"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="32"/>
+      <c r="AK33" s="32"/>
+      <c r="AL33" s="32"/>
+      <c r="AM33" s="32"/>
+      <c r="AN33" s="32"/>
+      <c r="AO33" s="32"/>
+      <c r="AP33" s="32"/>
+      <c r="AQ33" s="32"/>
+      <c r="AR33" s="32"/>
+      <c r="AS33" s="32"/>
+      <c r="AT33" s="32"/>
+      <c r="AU33" s="32"/>
+      <c r="AV33" s="32"/>
+      <c r="AW33" s="32"/>
     </row>
     <row r="34" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A34" s="4">
         <v>7</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D34" s="9">
         <v>44032</v>
@@ -4244,50 +4511,50 @@
       <c r="E34" s="9">
         <v>44043</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="8"/>
       <c r="H34" s="26"/>
       <c r="I34" s="6"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="33"/>
-      <c r="AD34" s="33"/>
-      <c r="AE34" s="33"/>
-      <c r="AF34" s="33"/>
-      <c r="AG34" s="33"/>
-      <c r="AH34" s="33"/>
-      <c r="AI34" s="33"/>
-      <c r="AJ34" s="33"/>
-      <c r="AK34" s="33"/>
-      <c r="AL34" s="33"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="33"/>
-      <c r="AO34" s="33"/>
-      <c r="AP34" s="33"/>
-      <c r="AQ34" s="33"/>
-      <c r="AR34" s="33"/>
-      <c r="AS34" s="33"/>
-      <c r="AT34" s="33"/>
-      <c r="AU34" s="33"/>
-      <c r="AV34" s="33"/>
-      <c r="AW34" s="33"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="32"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="32"/>
+      <c r="AC34" s="32"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="32"/>
+      <c r="AK34" s="32"/>
+      <c r="AL34" s="32"/>
+      <c r="AM34" s="32"/>
+      <c r="AN34" s="32"/>
+      <c r="AO34" s="32"/>
+      <c r="AP34" s="32"/>
+      <c r="AQ34" s="32"/>
+      <c r="AR34" s="32"/>
+      <c r="AS34" s="32"/>
+      <c r="AT34" s="32"/>
+      <c r="AU34" s="32"/>
+      <c r="AV34" s="32"/>
+      <c r="AW34" s="32"/>
     </row>
     <row r="35" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A35" s="12">
@@ -4297,7 +4564,7 @@
         <v>78</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="15">
         <v>44032</v>
@@ -4305,64 +4572,64 @@
       <c r="E35" s="15">
         <v>44036</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="41"/>
       <c r="G35" s="8">
         <v>6</v>
       </c>
       <c r="H35" s="26"/>
       <c r="I35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
+        <v>168</v>
+      </c>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+      <c r="Z35" s="32"/>
+      <c r="AA35" s="32"/>
+      <c r="AB35" s="32"/>
+      <c r="AC35" s="32"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="32"/>
+      <c r="AK35" s="32"/>
+      <c r="AL35" s="32"/>
+      <c r="AM35" s="32"/>
+      <c r="AN35" s="32"/>
+      <c r="AO35" s="32"/>
+      <c r="AP35" s="32"/>
+      <c r="AQ35" s="32"/>
+      <c r="AR35" s="32"/>
+      <c r="AS35" s="32"/>
+      <c r="AT35" s="32"/>
+      <c r="AU35" s="32"/>
+      <c r="AV35" s="32"/>
+      <c r="AW35" s="32"/>
     </row>
     <row r="36" spans="1:49" ht="19.149999999999999" customHeight="1">
       <c r="A36" s="12">
         <v>7.2</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D36" s="15">
         <v>44039</v>
@@ -4370,74 +4637,74 @@
       <c r="E36" s="15">
         <v>44043</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="8">
         <v>7.1</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="33"/>
-      <c r="AF36" s="33"/>
-      <c r="AG36" s="33"/>
-      <c r="AH36" s="33"/>
-      <c r="AI36" s="33"/>
-      <c r="AJ36" s="33"/>
-      <c r="AK36" s="33"/>
-      <c r="AL36" s="33"/>
-      <c r="AM36" s="33"/>
-      <c r="AN36" s="33"/>
-      <c r="AO36" s="33"/>
-      <c r="AP36" s="33"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
+        <v>169</v>
+      </c>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
+      <c r="AA36" s="32"/>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="32"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="32"/>
+      <c r="AK36" s="32"/>
+      <c r="AL36" s="32"/>
+      <c r="AM36" s="32"/>
+      <c r="AN36" s="32"/>
+      <c r="AO36" s="32"/>
+      <c r="AP36" s="32"/>
+      <c r="AQ36" s="32"/>
+      <c r="AR36" s="32"/>
+      <c r="AS36" s="32"/>
+      <c r="AT36" s="32"/>
+      <c r="AU36" s="32"/>
+      <c r="AV36" s="32"/>
+      <c r="AW36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="J1:N1"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="AI1:AM1"/>
     <mergeCell ref="AN1:AR1"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
